--- a/tianchi/yansuan/col_info.xlsx
+++ b/tianchi/yansuan/col_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8940"/>
+    <workbookView windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>A1</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -223,9 +229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -242,7 +248,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,49 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -324,24 +346,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,19 +400,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,163 +562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +591,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,33 +668,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -670,21 +691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,17 +1175,13 @@
   <sheetPr/>
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="26" style="1"/>
-    <col min="21" max="40" width="9" style="1"/>
-    <col min="41" max="41" width="19.375" style="1"/>
-    <col min="42" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="5.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:43">
@@ -1515,7 +1517,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>149</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1557,44 +1561,76 @@
         <v>66</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AG5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
+      <c r="AL5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
